--- a/Configuration/PurchaseCreateData.xlsx
+++ b/Configuration/PurchaseCreateData.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CB30C500-BC92-43C3-A643-2754A4C17AE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0712B0FC-189A-415D-9855-412EBA1EB8C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18510" windowHeight="7215" firstSheet="2" activeTab="2" xr2:uid="{93F75BEF-29EA-4486-AD9F-F3F3269504F2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21765" windowHeight="6075" firstSheet="1" activeTab="4" xr2:uid="{93F75BEF-29EA-4486-AD9F-F3F3269504F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Pur_SupplierMaster_Create" sheetId="1" r:id="rId1"/>
     <sheet name="Pur_ServiceProvider_Create" sheetId="2" r:id="rId2"/>
     <sheet name="Pur_MaterialBuyer_Create" sheetId="5" r:id="rId3"/>
+    <sheet name="Pur_Transaction_Create" sheetId="6" r:id="rId4"/>
+    <sheet name="SuppAdvance_Create" sheetId="7" r:id="rId5"/>
+    <sheet name="SuppPayment_Create" sheetId="8" r:id="rId6"/>
+    <sheet name="ServAdvance_Create" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P22"/>
+  <oleSize ref="A1:I18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="277">
   <si>
     <t>Supplier Name</t>
   </si>
@@ -602,6 +606,258 @@
   </si>
   <si>
     <t>963258149</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Paying Company</t>
+  </si>
+  <si>
+    <t>Sub Project</t>
+  </si>
+  <si>
+    <t>Purchase Order</t>
+  </si>
+  <si>
+    <t>Invoice Amount</t>
+  </si>
+  <si>
+    <t>PO Qty</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Mode of Payment</t>
+  </si>
+  <si>
+    <t>Favouring</t>
+  </si>
+  <si>
+    <t>Tax Category</t>
+  </si>
+  <si>
+    <t>Tax Per</t>
+  </si>
+  <si>
+    <t>Tax Category 2</t>
+  </si>
+  <si>
+    <t>Tax Per 2</t>
+  </si>
+  <si>
+    <t>PO/06Jun2023/A.G.E/99</t>
+  </si>
+  <si>
+    <t>Shrachi Burdwan Developers Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>BURDWAN TOWNSHIP PHASE -2, Burdwan</t>
+  </si>
+  <si>
+    <t>Twin House - Dyuti-Phase III</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>Automation Advance</t>
+  </si>
+  <si>
+    <t>TDS</t>
+  </si>
+  <si>
+    <t>Card Payment</t>
+  </si>
+  <si>
+    <t>WCT</t>
+  </si>
+  <si>
+    <t>WCT tax 3.000 %</t>
+  </si>
+  <si>
+    <t>TDS 2.000 %</t>
+  </si>
+  <si>
+    <t>620000</t>
+  </si>
+  <si>
+    <t>215.63</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>45820</t>
+  </si>
+  <si>
+    <t>1250.85</t>
+  </si>
+  <si>
+    <t>210.6</t>
+  </si>
+  <si>
+    <t>185.95</t>
+  </si>
+  <si>
+    <t>TDS 1.00%</t>
+  </si>
+  <si>
+    <t>WCT tax 5.000 %</t>
+  </si>
+  <si>
+    <t>Pay Order</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>PO QTY</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>Material Rate</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>Taxable Amount</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>Bank Accounts</t>
+  </si>
+  <si>
+    <t>Instrument No</t>
+  </si>
+  <si>
+    <t>AXIS BANK LTD</t>
+  </si>
+  <si>
+    <t>INDIAN OVERSEAS BANK ( ESCROW) A/C NO. 3073</t>
+  </si>
+  <si>
+    <t>State Bank of India. 38357944544</t>
+  </si>
+  <si>
+    <t>2023999</t>
+  </si>
+  <si>
+    <t>2023199</t>
+  </si>
+  <si>
+    <t>2023152</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>A.G.Enterprise</t>
+  </si>
+  <si>
+    <t>Domestic/ROPO</t>
+  </si>
+  <si>
+    <t>PO Type</t>
+  </si>
+  <si>
+    <t>E-invoice</t>
+  </si>
+  <si>
+    <t>Type of Certificate</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Ded Tax Category</t>
+  </si>
+  <si>
+    <t>Ded Tax Per</t>
+  </si>
+  <si>
+    <t>Ded Tax Category 2</t>
+  </si>
+  <si>
+    <t>Ded Tax Per 2</t>
+  </si>
+  <si>
+    <t>Other Deductions</t>
+  </si>
+  <si>
+    <t>Other Additions</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>Retention %</t>
+  </si>
+  <si>
+    <t>Payment Mode</t>
+  </si>
+  <si>
+    <t>PO/05Jun2023/A.G.E/93</t>
+  </si>
+  <si>
+    <t>PO/06Jun2023/A.G.E/98</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>Other Deuctions</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>Ajay Kumar Agarwal,</t>
+  </si>
+  <si>
+    <t>Service Provider</t>
+  </si>
+  <si>
+    <t>Certified Amount</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
@@ -645,11 +901,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1823,8 +2081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B90046-E5F9-4E21-BD20-96DF5BAB9CEF}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2225,4 +2483,670 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E38BEA-9975-49C1-8BC4-69C821F5476C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03461F4E-0635-4889-A895-2A8EC2021153}">
+  <dimension ref="A1:T4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1" t="s">
+        <v>206</v>
+      </c>
+      <c r="P1" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>239</v>
+      </c>
+      <c r="S1" t="s">
+        <v>232</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J2" t="s">
+        <v>217</v>
+      </c>
+      <c r="K2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2" t="s">
+        <v>216</v>
+      </c>
+      <c r="M2" t="s">
+        <v>220</v>
+      </c>
+      <c r="N2" t="s">
+        <v>218</v>
+      </c>
+      <c r="O2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P2" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="S2" t="s">
+        <v>232</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J3" t="s">
+        <v>223</v>
+      </c>
+      <c r="K3" t="s">
+        <v>215</v>
+      </c>
+      <c r="L3" t="s">
+        <v>216</v>
+      </c>
+      <c r="M3" t="s">
+        <v>228</v>
+      </c>
+      <c r="N3" t="s">
+        <v>218</v>
+      </c>
+      <c r="O3" t="s">
+        <v>229</v>
+      </c>
+      <c r="P3" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="S3" t="s">
+        <v>234</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J4" t="s">
+        <v>230</v>
+      </c>
+      <c r="K4" t="s">
+        <v>215</v>
+      </c>
+      <c r="L4" t="s">
+        <v>216</v>
+      </c>
+      <c r="M4" t="s">
+        <v>220</v>
+      </c>
+      <c r="N4" t="s">
+        <v>218</v>
+      </c>
+      <c r="O4" t="s">
+        <v>219</v>
+      </c>
+      <c r="P4" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="S4" t="s">
+        <v>236</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBBDD9F-0799-46ED-9C13-CBEA559870B8}">
+  <dimension ref="A1:Y4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="45.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J1" t="s">
+        <v>253</v>
+      </c>
+      <c r="K1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L1" t="s">
+        <v>255</v>
+      </c>
+      <c r="M1" t="s">
+        <v>256</v>
+      </c>
+      <c r="N1" t="s">
+        <v>257</v>
+      </c>
+      <c r="O1" t="s">
+        <v>258</v>
+      </c>
+      <c r="P1" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>262</v>
+      </c>
+      <c r="R1" t="s">
+        <v>263</v>
+      </c>
+      <c r="T1" t="s">
+        <v>254</v>
+      </c>
+      <c r="U1" t="s">
+        <v>216</v>
+      </c>
+      <c r="V1" t="s">
+        <v>256</v>
+      </c>
+      <c r="W1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K2" t="s">
+        <v>216</v>
+      </c>
+      <c r="L2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M2" t="s">
+        <v>218</v>
+      </c>
+      <c r="N2" t="s">
+        <v>219</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="R2" t="s">
+        <v>217</v>
+      </c>
+      <c r="T2" t="s">
+        <v>255</v>
+      </c>
+      <c r="U2" t="s">
+        <v>228</v>
+      </c>
+      <c r="V2" t="s">
+        <v>257</v>
+      </c>
+      <c r="W2" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>252</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L3" t="s">
+        <v>229</v>
+      </c>
+      <c r="M3" t="s">
+        <v>216</v>
+      </c>
+      <c r="N3" t="s">
+        <v>228</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="R3" t="s">
+        <v>223</v>
+      </c>
+      <c r="T3" t="s">
+        <v>269</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="V3" t="s">
+        <v>259</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>252</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="K4" t="s">
+        <v>218</v>
+      </c>
+      <c r="L4" t="s">
+        <v>229</v>
+      </c>
+      <c r="M4" t="s">
+        <v>216</v>
+      </c>
+      <c r="N4" t="s">
+        <v>228</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="R4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B915AD62-B40C-4C09-B1E6-19149F77CB45}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Configuration/PurchaseCreateData.xlsx
+++ b/Configuration/PurchaseCreateData.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0712B0FC-189A-415D-9855-412EBA1EB8C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2A31427B-9A44-4B15-A884-C358E1C6C1B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21765" windowHeight="6075" firstSheet="1" activeTab="4" xr2:uid="{93F75BEF-29EA-4486-AD9F-F3F3269504F2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22455" windowHeight="5595" firstSheet="1" activeTab="3" xr2:uid="{93F75BEF-29EA-4486-AD9F-F3F3269504F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Pur_SupplierMaster_Create" sheetId="1" r:id="rId1"/>
     <sheet name="Pur_ServiceProvider_Create" sheetId="2" r:id="rId2"/>
-    <sheet name="Pur_MaterialBuyer_Create" sheetId="5" r:id="rId3"/>
-    <sheet name="Pur_Transaction_Create" sheetId="6" r:id="rId4"/>
+    <sheet name="Pur_MaterialBuyer_Create1" sheetId="5" r:id="rId3"/>
+    <sheet name="Pur_MaterialBuyer_Create" sheetId="17" r:id="rId4"/>
     <sheet name="SuppAdvance_Create" sheetId="7" r:id="rId5"/>
     <sheet name="SuppPayment_Create" sheetId="8" r:id="rId6"/>
     <sheet name="ServAdvance_Create" sheetId="9" r:id="rId7"/>
+    <sheet name="ServPayment_Create" sheetId="11" r:id="rId8"/>
+    <sheet name="SuppDebitNoteCreate" sheetId="13" r:id="rId9"/>
+    <sheet name="ServiceDebitNoteCreate" sheetId="14" r:id="rId10"/>
+    <sheet name="SuppDebitNoteReceiptCreate" sheetId="15" r:id="rId11"/>
+    <sheet name="ServiceDebitNoteReceiptCreate" sheetId="16" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I18"/>
+  <oleSize ref="A1:W16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="368">
   <si>
     <t>Supplier Name</t>
   </si>
@@ -650,9 +655,6 @@
     <t>Tax Per 2</t>
   </si>
   <si>
-    <t>PO/06Jun2023/A.G.E/99</t>
-  </si>
-  <si>
     <t>Shrachi Burdwan Developers Pvt. Ltd.</t>
   </si>
   <si>
@@ -668,12 +670,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>2500</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
     <t>Automation Advance</t>
   </si>
   <si>
@@ -695,24 +691,12 @@
     <t>620000</t>
   </si>
   <si>
-    <t>215.63</t>
-  </si>
-  <si>
     <t>Cash</t>
   </si>
   <si>
     <t>45820</t>
   </si>
   <si>
-    <t>1250.85</t>
-  </si>
-  <si>
-    <t>210.6</t>
-  </si>
-  <si>
-    <t>185.95</t>
-  </si>
-  <si>
     <t>TDS 1.00%</t>
   </si>
   <si>
@@ -809,27 +793,12 @@
     <t>Other Additions</t>
   </si>
   <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
     <t>Retention %</t>
   </si>
   <si>
     <t>Payment Mode</t>
   </si>
   <si>
-    <t>PO/05Jun2023/A.G.E/93</t>
-  </si>
-  <si>
-    <t>PO/06Jun2023/A.G.E/98</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -842,9 +811,6 @@
     <t>4.5</t>
   </si>
   <si>
-    <t>0.12</t>
-  </si>
-  <si>
     <t>2.5</t>
   </si>
   <si>
@@ -857,14 +823,326 @@
     <t>Certified Amount</t>
   </si>
   <si>
+    <t>Edit Page data</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>4500</t>
+  </si>
+  <si>
+    <t>1950</t>
+  </si>
+  <si>
+    <t>AXIS BANK LTD.148010200013280</t>
+  </si>
+  <si>
+    <t>Kotak Mahindra Bank-566011003316</t>
+  </si>
+  <si>
+    <t>Addition Tax Category</t>
+  </si>
+  <si>
+    <t>Addition Tax Percentage</t>
+  </si>
+  <si>
+    <t>CGST</t>
+  </si>
+  <si>
+    <t>SGST</t>
+  </si>
+  <si>
+    <t>CGST 2.5%</t>
+  </si>
+  <si>
+    <t>SGST 2.5%</t>
+  </si>
+  <si>
+    <t>Deduction Tax Category</t>
+  </si>
+  <si>
+    <t>Deduction Tax Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase Order </t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>Add Tax Cat 1</t>
+  </si>
+  <si>
+    <t>Add Tax Cat 2</t>
+  </si>
+  <si>
+    <t>Add Tax Per 1</t>
+  </si>
+  <si>
+    <t>Add Tax Tax Type 1</t>
+  </si>
+  <si>
+    <t>Add Tax Per 2</t>
+  </si>
+  <si>
+    <t>Add Tax Tax Type 2</t>
+  </si>
+  <si>
+    <t>Ded Tax Cat</t>
+  </si>
+  <si>
+    <t>CGST 6%</t>
+  </si>
+  <si>
+    <t>SGST 6%</t>
+  </si>
+  <si>
+    <t>Exclusive</t>
+  </si>
+  <si>
+    <t>CGST 4%</t>
+  </si>
+  <si>
+    <t>SGST 4%</t>
+  </si>
+  <si>
+    <t>Inclusive</t>
+  </si>
+  <si>
+    <t>GRN value</t>
+  </si>
+  <si>
+    <t>TDS 10.000 %</t>
+  </si>
+  <si>
+    <t>5600</t>
+  </si>
+  <si>
+    <t>5650</t>
+  </si>
+  <si>
+    <t>Cheque Local</t>
+  </si>
+  <si>
     <t>100</t>
+  </si>
+  <si>
+    <t>Reason Type</t>
+  </si>
+  <si>
+    <t>Debit Note Amount</t>
+  </si>
+  <si>
+    <t>Rate per UOM</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>PO/05Jul2023/A.G.E/145</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>Sub project</t>
+  </si>
+  <si>
+    <t>Rate/UOM</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>Edit Page Data</t>
+  </si>
+  <si>
+    <t>Certifying Company</t>
+  </si>
+  <si>
+    <t>PO/07Jul2023/A.G.E/146</t>
+  </si>
+  <si>
+    <t>12410</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>Receipt Amount</t>
+  </si>
+  <si>
+    <t>Debit Note Number</t>
+  </si>
+  <si>
+    <t>Bank Name</t>
+  </si>
+  <si>
+    <t>Branch Name</t>
+  </si>
+  <si>
+    <t>Payable At</t>
+  </si>
+  <si>
+    <t>Account Number</t>
+  </si>
+  <si>
+    <t>Instrument Number</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>AXIS BANK LTD.</t>
+  </si>
+  <si>
+    <t>AXIS000199</t>
+  </si>
+  <si>
+    <t>AXINNO012354</t>
+  </si>
+  <si>
+    <t>Receipt Currency</t>
+  </si>
+  <si>
+    <t>INR-Indian Rupee</t>
+  </si>
+  <si>
+    <t>AXINNO012355</t>
+  </si>
+  <si>
+    <t>AXINNO012356</t>
+  </si>
+  <si>
+    <t>5050</t>
+  </si>
+  <si>
+    <t>7047</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>Bank/Cash Ledger Account</t>
+  </si>
+  <si>
+    <t>Edit page Data</t>
+  </si>
+  <si>
+    <t>PO/10Jul2023/A.G.E/148</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>Ajay Kumar Agarwal,Purulia</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>14200</t>
+  </si>
+  <si>
+    <t>12850</t>
+  </si>
+  <si>
+    <t>9620</t>
+  </si>
+  <si>
+    <t>6520</t>
+  </si>
+  <si>
+    <t>Advance Recovery Amount</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>380000</t>
+  </si>
+  <si>
+    <t>250000</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Debit Note Adjustment</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>Debit Note recovery Amount</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>PO/28Jul2023/A.G.E/214</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>PO/28Jul2023/A.G.E/215</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -880,13 +1158,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -898,18 +1188,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1225,7 +1519,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,12 +1936,692 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEBDBAB-A6AE-43D1-9A95-E4D611045257}">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="H2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I2" t="s">
+        <v>291</v>
+      </c>
+      <c r="J2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K2" t="s">
+        <v>274</v>
+      </c>
+      <c r="L2" t="s">
+        <v>292</v>
+      </c>
+      <c r="M2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H3" t="s">
+        <v>273</v>
+      </c>
+      <c r="I3" t="s">
+        <v>288</v>
+      </c>
+      <c r="J3" t="s">
+        <v>293</v>
+      </c>
+      <c r="K3" t="s">
+        <v>274</v>
+      </c>
+      <c r="L3" t="s">
+        <v>289</v>
+      </c>
+      <c r="M3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="H4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I4" t="s">
+        <v>275</v>
+      </c>
+      <c r="J4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K4" t="s">
+        <v>274</v>
+      </c>
+      <c r="L4" t="s">
+        <v>276</v>
+      </c>
+      <c r="M4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7F0FCA-D34E-45F5-8E08-139D8C4B7426}">
+  <dimension ref="A1:S4"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J2" t="s">
+        <v>326</v>
+      </c>
+      <c r="K2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M2" t="s">
+        <v>327</v>
+      </c>
+      <c r="N2" t="s">
+        <v>328</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="P2" t="s">
+        <v>269</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="S2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J3" t="s">
+        <v>326</v>
+      </c>
+      <c r="K3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" t="s">
+        <v>132</v>
+      </c>
+      <c r="M3" t="s">
+        <v>327</v>
+      </c>
+      <c r="N3" t="s">
+        <v>331</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="P3" t="s">
+        <v>269</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="J4" t="s">
+        <v>326</v>
+      </c>
+      <c r="K4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" t="s">
+        <v>327</v>
+      </c>
+      <c r="N4" t="s">
+        <v>332</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="P4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11EFEED-79F1-481C-A01C-741804651BF1}">
+  <dimension ref="A1:R4"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="I2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L2" t="s">
+        <v>327</v>
+      </c>
+      <c r="M2" t="s">
+        <v>328</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="O2" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="R2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="I3" t="s">
+        <v>326</v>
+      </c>
+      <c r="J3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" t="s">
+        <v>327</v>
+      </c>
+      <c r="M3" t="s">
+        <v>331</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O3" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="I4" t="s">
+        <v>326</v>
+      </c>
+      <c r="J4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" t="s">
+        <v>327</v>
+      </c>
+      <c r="M4" t="s">
+        <v>332</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="O4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C632BF-4D9A-4367-A2D3-C9781CA0BD49}">
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2082,7 +3056,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2486,15 +3460,131 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E38BEA-9975-49C1-8BC4-69C821F5476C}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE99DEB-B545-4E8C-BA08-07C0F32E96DA}">
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2503,8 +3593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03461F4E-0635-4889-A895-2A8EC2021153}">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2573,13 +3663,13 @@
         <v>206</v>
       </c>
       <c r="P1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="Q1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="S1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>170</v>
@@ -2587,179 +3677,179 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s">
         <v>208</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" t="s">
         <v>209</v>
       </c>
-      <c r="C2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="G2" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="J2" t="s">
+        <v>214</v>
+      </c>
+      <c r="K2" t="s">
         <v>212</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="L2" t="s">
         <v>213</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>217</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>215</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>216</v>
       </c>
-      <c r="M2" t="s">
-        <v>220</v>
-      </c>
-      <c r="N2" t="s">
-        <v>218</v>
-      </c>
-      <c r="O2" t="s">
-        <v>219</v>
-      </c>
       <c r="P2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="S2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" t="s">
         <v>208</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" t="s">
         <v>209</v>
       </c>
-      <c r="C3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D3" t="s">
-        <v>210</v>
-      </c>
       <c r="E3" t="s">
-        <v>207</v>
+        <v>363</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="J3" t="s">
+        <v>219</v>
+      </c>
+      <c r="K3" t="s">
+        <v>212</v>
+      </c>
+      <c r="L3" t="s">
+        <v>213</v>
+      </c>
+      <c r="M3" t="s">
         <v>221</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="N3" t="s">
+        <v>215</v>
+      </c>
+      <c r="O3" t="s">
         <v>222</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="P3" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="S3" t="s">
         <v>227</v>
       </c>
-      <c r="J3" t="s">
-        <v>223</v>
-      </c>
-      <c r="K3" t="s">
-        <v>215</v>
-      </c>
-      <c r="L3" t="s">
-        <v>216</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="T3" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="N3" t="s">
-        <v>218</v>
-      </c>
-      <c r="O3" t="s">
-        <v>229</v>
-      </c>
-      <c r="P3" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="S3" t="s">
-        <v>234</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" t="s">
         <v>208</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" t="s">
         <v>209</v>
       </c>
-      <c r="C4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D4" t="s">
-        <v>210</v>
-      </c>
       <c r="E4" t="s">
-        <v>207</v>
+        <v>363</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>225</v>
+        <v>299</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>226</v>
+        <v>360</v>
       </c>
       <c r="J4" t="s">
+        <v>223</v>
+      </c>
+      <c r="K4" t="s">
+        <v>212</v>
+      </c>
+      <c r="L4" t="s">
+        <v>213</v>
+      </c>
+      <c r="M4" t="s">
+        <v>217</v>
+      </c>
+      <c r="N4" t="s">
+        <v>215</v>
+      </c>
+      <c r="O4" t="s">
+        <v>216</v>
+      </c>
+      <c r="P4" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="S4" t="s">
+        <v>229</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="K4" t="s">
-        <v>215</v>
-      </c>
-      <c r="L4" t="s">
-        <v>216</v>
-      </c>
-      <c r="M4" t="s">
-        <v>220</v>
-      </c>
-      <c r="N4" t="s">
-        <v>218</v>
-      </c>
-      <c r="O4" t="s">
-        <v>219</v>
-      </c>
-      <c r="P4" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="S4" t="s">
-        <v>236</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2770,10 +3860,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCBBDD9F-0799-46ED-9C13-CBEA559870B8}">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2794,277 +3884,305 @@
     <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.42578125" customWidth="1"/>
+    <col min="19" max="19" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="G1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="N1" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="K1" t="s">
+      <c r="R1" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="L1" t="s">
-        <v>255</v>
-      </c>
-      <c r="M1" t="s">
-        <v>256</v>
-      </c>
-      <c r="N1" t="s">
-        <v>257</v>
-      </c>
-      <c r="O1" t="s">
-        <v>258</v>
-      </c>
-      <c r="P1" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>262</v>
-      </c>
-      <c r="R1" t="s">
-        <v>263</v>
-      </c>
-      <c r="T1" t="s">
-        <v>254</v>
-      </c>
-      <c r="U1" t="s">
-        <v>216</v>
-      </c>
-      <c r="V1" t="s">
-        <v>256</v>
-      </c>
-      <c r="W1" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T1" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s">
         <v>208</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" t="s">
         <v>209</v>
       </c>
-      <c r="C2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D2" t="s">
-        <v>210</v>
-      </c>
       <c r="E2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G2" t="s">
-        <v>264</v>
+        <v>367</v>
       </c>
       <c r="H2" t="s">
         <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
       <c r="K2" t="s">
+        <v>213</v>
+      </c>
+      <c r="L2" t="s">
+        <v>217</v>
+      </c>
+      <c r="M2" t="s">
+        <v>215</v>
+      </c>
+      <c r="N2" t="s">
         <v>216</v>
       </c>
-      <c r="L2" t="s">
-        <v>220</v>
-      </c>
-      <c r="M2" t="s">
-        <v>218</v>
-      </c>
-      <c r="N2" t="s">
-        <v>219</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>260</v>
+        <v>347</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="T2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="U2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="V2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="W2" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="Y2" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E3" t="s">
-        <v>247</v>
-      </c>
       <c r="F3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G3" t="s">
-        <v>265</v>
+        <v>367</v>
       </c>
       <c r="H3" t="s">
         <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
       <c r="K3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="M3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="N3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>169</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="R3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="T3" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="V3" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" t="s">
         <v>208</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" t="s">
         <v>209</v>
       </c>
-      <c r="C4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D4" t="s">
-        <v>210</v>
-      </c>
       <c r="E4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G4" t="s">
-        <v>264</v>
+        <v>367</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>271</v>
+        <v>362</v>
       </c>
       <c r="K4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L4" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="M4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="N4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="R4" t="s">
-        <v>217</v>
+        <v>214</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3075,10 +4193,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B915AD62-B40C-4C09-B1E6-19149F77CB45}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3086,63 +4204,625 @@
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" customWidth="1"/>
+    <col min="11" max="11" width="28.85546875" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" customWidth="1"/>
+    <col min="14" max="14" width="45.5703125" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J2" t="s">
+        <v>273</v>
+      </c>
+      <c r="K2" t="s">
+        <v>275</v>
+      </c>
+      <c r="L2" t="s">
+        <v>213</v>
+      </c>
+      <c r="M2" t="s">
+        <v>217</v>
+      </c>
+      <c r="O2" t="s">
+        <v>262</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H3" t="s">
+        <v>214</v>
+      </c>
+      <c r="I3" t="s">
+        <v>269</v>
+      </c>
+      <c r="J3" t="s">
         <v>274</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K3" t="s">
+        <v>276</v>
+      </c>
+      <c r="L3" t="s">
+        <v>215</v>
+      </c>
+      <c r="M3" t="s">
+        <v>216</v>
+      </c>
+      <c r="O3" t="s">
         <v>197</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P3" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I4" t="s">
+        <v>270</v>
+      </c>
+      <c r="L4" t="s">
+        <v>213</v>
+      </c>
+      <c r="M4" t="s">
+        <v>221</v>
+      </c>
+      <c r="O4" t="s">
+        <v>201</v>
+      </c>
+      <c r="P4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF08C508-FCB2-48EA-A1EA-6F56A209877C}">
+  <dimension ref="A1:V4"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="U1" t="s">
+        <v>346</v>
+      </c>
+      <c r="V1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I2" t="s">
+        <v>293</v>
+      </c>
+      <c r="J2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K2" t="s">
+        <v>292</v>
+      </c>
+      <c r="L2" t="s">
+        <v>293</v>
+      </c>
+      <c r="M2" t="s">
+        <v>213</v>
+      </c>
+      <c r="N2" t="s">
+        <v>217</v>
+      </c>
+      <c r="O2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>233</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G3" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3" t="s">
+        <v>288</v>
+      </c>
+      <c r="I3" t="s">
+        <v>293</v>
+      </c>
+      <c r="J3" t="s">
+        <v>274</v>
+      </c>
+      <c r="K3" t="s">
+        <v>289</v>
+      </c>
+      <c r="L3" t="s">
+        <v>293</v>
+      </c>
+      <c r="M3" t="s">
+        <v>213</v>
+      </c>
+      <c r="N3" t="s">
+        <v>221</v>
+      </c>
+      <c r="O3" t="s">
+        <v>219</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>269</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="S3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H4" t="s">
         <v>275</v>
       </c>
-      <c r="H1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>290</v>
+      </c>
+      <c r="J4" t="s">
+        <v>274</v>
+      </c>
+      <c r="K4" t="s">
+        <v>276</v>
+      </c>
+      <c r="L4" t="s">
+        <v>290</v>
+      </c>
+      <c r="M4" t="s">
+        <v>213</v>
+      </c>
+      <c r="N4" t="s">
+        <v>295</v>
+      </c>
+      <c r="O4" t="s">
+        <v>219</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE7C450-EA3F-430D-966F-A58126CA700E}">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s">
         <v>208</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" t="s">
         <v>209</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F2" t="s">
+        <v>303</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="K2" t="s">
+        <v>308</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" t="s">
         <v>208</v>
       </c>
-      <c r="D2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H2" t="s">
-        <v>217</v>
+      <c r="C3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F3" t="s">
+        <v>303</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="K3" t="s">
+        <v>308</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F4" t="s">
+        <v>303</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
